--- a/TR/PYTHON/IA2.xlsx
+++ b/TR/PYTHON/IA2.xlsx
@@ -1,38 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\07map\Documents\GitHub\Flappy-bird_TR\TR\PYTHON\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6152936-47D5-4EDB-8030-D8021B6372A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -331,13 +385,1020 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>136084.81</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>123564.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>149773.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>154048.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>161769.43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>156362.38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>160706.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>164096.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>164091.89</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>164175.92</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>23</v>
+      </c>
+      <c r="B23" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26</v>
+      </c>
+      <c r="B26" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>27</v>
+      </c>
+      <c r="B27" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>29</v>
+      </c>
+      <c r="B29" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>30</v>
+      </c>
+      <c r="B30" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>31</v>
+      </c>
+      <c r="B31" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>32</v>
+      </c>
+      <c r="B32" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33</v>
+      </c>
+      <c r="B33" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34</v>
+      </c>
+      <c r="B34" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35</v>
+      </c>
+      <c r="B35" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36</v>
+      </c>
+      <c r="B36" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37</v>
+      </c>
+      <c r="B37" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38</v>
+      </c>
+      <c r="B38" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39</v>
+      </c>
+      <c r="B39" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>40</v>
+      </c>
+      <c r="B40" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>41</v>
+      </c>
+      <c r="B41" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>42</v>
+      </c>
+      <c r="B42" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>43</v>
+      </c>
+      <c r="B43" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>44</v>
+      </c>
+      <c r="B44" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>45</v>
+      </c>
+      <c r="B45" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>46</v>
+      </c>
+      <c r="B46" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>47</v>
+      </c>
+      <c r="B47" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>48</v>
+      </c>
+      <c r="B48" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>49</v>
+      </c>
+      <c r="B49" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>50</v>
+      </c>
+      <c r="B50" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>51</v>
+      </c>
+      <c r="B51" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>52</v>
+      </c>
+      <c r="B52" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>53</v>
+      </c>
+      <c r="B53" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>54</v>
+      </c>
+      <c r="B54" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>55</v>
+      </c>
+      <c r="B55" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>56</v>
+      </c>
+      <c r="B56" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>57</v>
+      </c>
+      <c r="B57" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58</v>
+      </c>
+      <c r="B58" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59</v>
+      </c>
+      <c r="B59" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>60</v>
+      </c>
+      <c r="B60" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>61</v>
+      </c>
+      <c r="B61" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>62</v>
+      </c>
+      <c r="B62" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63</v>
+      </c>
+      <c r="B63" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64</v>
+      </c>
+      <c r="B64" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>65</v>
+      </c>
+      <c r="B65" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>66</v>
+      </c>
+      <c r="B66" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>67</v>
+      </c>
+      <c r="B67" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>68</v>
+      </c>
+      <c r="B68" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>69</v>
+      </c>
+      <c r="B69" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>70</v>
+      </c>
+      <c r="B70" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>71</v>
+      </c>
+      <c r="B71" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>72</v>
+      </c>
+      <c r="B72" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>73</v>
+      </c>
+      <c r="B73" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>74</v>
+      </c>
+      <c r="B74" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>75</v>
+      </c>
+      <c r="B75" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>76</v>
+      </c>
+      <c r="B76" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>77</v>
+      </c>
+      <c r="B77" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>78</v>
+      </c>
+      <c r="B78" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>79</v>
+      </c>
+      <c r="B79" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>80</v>
+      </c>
+      <c r="B80" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>81</v>
+      </c>
+      <c r="B81" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>82</v>
+      </c>
+      <c r="B82" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>83</v>
+      </c>
+      <c r="B83" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>84</v>
+      </c>
+      <c r="B84" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>85</v>
+      </c>
+      <c r="B85" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>86</v>
+      </c>
+      <c r="B86" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>87</v>
+      </c>
+      <c r="B87" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>88</v>
+      </c>
+      <c r="B88" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>89</v>
+      </c>
+      <c r="B89" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>90</v>
+      </c>
+      <c r="B90" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>91</v>
+      </c>
+      <c r="B91" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>92</v>
+      </c>
+      <c r="B92" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>93</v>
+      </c>
+      <c r="B93" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>94</v>
+      </c>
+      <c r="B94" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>95</v>
+      </c>
+      <c r="B95" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>96</v>
+      </c>
+      <c r="B96" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>97</v>
+      </c>
+      <c r="B97" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>98</v>
+      </c>
+      <c r="B98" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>99</v>
+      </c>
+      <c r="B99" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>100</v>
+      </c>
+      <c r="B100" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>101</v>
+      </c>
+      <c r="B101" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>102</v>
+      </c>
+      <c r="B102" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>103</v>
+      </c>
+      <c r="B103" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>104</v>
+      </c>
+      <c r="B104" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>105</v>
+      </c>
+      <c r="B105" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>106</v>
+      </c>
+      <c r="B106" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>107</v>
+      </c>
+      <c r="B107" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>108</v>
+      </c>
+      <c r="B108" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>109</v>
+      </c>
+      <c r="B109" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>110</v>
+      </c>
+      <c r="B110" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>111</v>
+      </c>
+      <c r="B111" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>112</v>
+      </c>
+      <c r="B112" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>113</v>
+      </c>
+      <c r="B113" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>114</v>
+      </c>
+      <c r="B114" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>115</v>
+      </c>
+      <c r="B115" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>116</v>
+      </c>
+      <c r="B116" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>117</v>
+      </c>
+      <c r="B117" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>118</v>
+      </c>
+      <c r="B118" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>119</v>
+      </c>
+      <c r="B119" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>120</v>
+      </c>
+      <c r="B120" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>121</v>
+      </c>
+      <c r="B121" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>122</v>
+      </c>
+      <c r="B122" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>123</v>
+      </c>
+      <c r="B123" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>124</v>
+      </c>
+      <c r="B124" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>125</v>
+      </c>
+      <c r="B125" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TR/PYTHON/IA2.xlsx
+++ b/TR/PYTHON/IA2.xlsx
@@ -7,6 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P-100_I-0_M-0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P-25_I-0_M-0" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1401,4 +1403,2042 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B125"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>136084.81</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>123564.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>149773.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>154048.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>161769.43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>156362.38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>160706.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>164096.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>164091.89</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>164175.92</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>23</v>
+      </c>
+      <c r="B23" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26</v>
+      </c>
+      <c r="B26" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>27</v>
+      </c>
+      <c r="B27" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>29</v>
+      </c>
+      <c r="B29" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>30</v>
+      </c>
+      <c r="B30" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>31</v>
+      </c>
+      <c r="B31" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>32</v>
+      </c>
+      <c r="B32" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33</v>
+      </c>
+      <c r="B33" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34</v>
+      </c>
+      <c r="B34" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35</v>
+      </c>
+      <c r="B35" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36</v>
+      </c>
+      <c r="B36" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37</v>
+      </c>
+      <c r="B37" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38</v>
+      </c>
+      <c r="B38" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39</v>
+      </c>
+      <c r="B39" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>40</v>
+      </c>
+      <c r="B40" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>41</v>
+      </c>
+      <c r="B41" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>42</v>
+      </c>
+      <c r="B42" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>43</v>
+      </c>
+      <c r="B43" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>44</v>
+      </c>
+      <c r="B44" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>45</v>
+      </c>
+      <c r="B45" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>46</v>
+      </c>
+      <c r="B46" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>47</v>
+      </c>
+      <c r="B47" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>48</v>
+      </c>
+      <c r="B48" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>49</v>
+      </c>
+      <c r="B49" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>50</v>
+      </c>
+      <c r="B50" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>51</v>
+      </c>
+      <c r="B51" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>52</v>
+      </c>
+      <c r="B52" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>53</v>
+      </c>
+      <c r="B53" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>54</v>
+      </c>
+      <c r="B54" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>55</v>
+      </c>
+      <c r="B55" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>56</v>
+      </c>
+      <c r="B56" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>57</v>
+      </c>
+      <c r="B57" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58</v>
+      </c>
+      <c r="B58" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59</v>
+      </c>
+      <c r="B59" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>60</v>
+      </c>
+      <c r="B60" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>61</v>
+      </c>
+      <c r="B61" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>62</v>
+      </c>
+      <c r="B62" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63</v>
+      </c>
+      <c r="B63" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64</v>
+      </c>
+      <c r="B64" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>65</v>
+      </c>
+      <c r="B65" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>66</v>
+      </c>
+      <c r="B66" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>67</v>
+      </c>
+      <c r="B67" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>68</v>
+      </c>
+      <c r="B68" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>69</v>
+      </c>
+      <c r="B69" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>70</v>
+      </c>
+      <c r="B70" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>71</v>
+      </c>
+      <c r="B71" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>72</v>
+      </c>
+      <c r="B72" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>73</v>
+      </c>
+      <c r="B73" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>74</v>
+      </c>
+      <c r="B74" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>75</v>
+      </c>
+      <c r="B75" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>76</v>
+      </c>
+      <c r="B76" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>77</v>
+      </c>
+      <c r="B77" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>78</v>
+      </c>
+      <c r="B78" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>79</v>
+      </c>
+      <c r="B79" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>80</v>
+      </c>
+      <c r="B80" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>81</v>
+      </c>
+      <c r="B81" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>82</v>
+      </c>
+      <c r="B82" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>83</v>
+      </c>
+      <c r="B83" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>84</v>
+      </c>
+      <c r="B84" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>85</v>
+      </c>
+      <c r="B85" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>86</v>
+      </c>
+      <c r="B86" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>87</v>
+      </c>
+      <c r="B87" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>88</v>
+      </c>
+      <c r="B88" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>89</v>
+      </c>
+      <c r="B89" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>90</v>
+      </c>
+      <c r="B90" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>91</v>
+      </c>
+      <c r="B91" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>92</v>
+      </c>
+      <c r="B92" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>93</v>
+      </c>
+      <c r="B93" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>94</v>
+      </c>
+      <c r="B94" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>95</v>
+      </c>
+      <c r="B95" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>96</v>
+      </c>
+      <c r="B96" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>97</v>
+      </c>
+      <c r="B97" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>98</v>
+      </c>
+      <c r="B98" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>99</v>
+      </c>
+      <c r="B99" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>100</v>
+      </c>
+      <c r="B100" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>101</v>
+      </c>
+      <c r="B101" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>102</v>
+      </c>
+      <c r="B102" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>103</v>
+      </c>
+      <c r="B103" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>104</v>
+      </c>
+      <c r="B104" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>105</v>
+      </c>
+      <c r="B105" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>106</v>
+      </c>
+      <c r="B106" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>107</v>
+      </c>
+      <c r="B107" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>108</v>
+      </c>
+      <c r="B108" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>109</v>
+      </c>
+      <c r="B109" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>110</v>
+      </c>
+      <c r="B110" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>111</v>
+      </c>
+      <c r="B111" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>112</v>
+      </c>
+      <c r="B112" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>113</v>
+      </c>
+      <c r="B113" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>114</v>
+      </c>
+      <c r="B114" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>115</v>
+      </c>
+      <c r="B115" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>116</v>
+      </c>
+      <c r="B116" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>117</v>
+      </c>
+      <c r="B117" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>118</v>
+      </c>
+      <c r="B118" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>119</v>
+      </c>
+      <c r="B119" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>120</v>
+      </c>
+      <c r="B120" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>121</v>
+      </c>
+      <c r="B121" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>122</v>
+      </c>
+      <c r="B122" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>123</v>
+      </c>
+      <c r="B123" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>124</v>
+      </c>
+      <c r="B124" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>125</v>
+      </c>
+      <c r="B125" t="n">
+        <v>164188.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B125"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>60746.02</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>97582.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>106292.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>127835.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>138523.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>140797.61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>137955.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>149605.42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>144698.25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>146372.64</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>140223.55</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="n">
+        <v>163758.43</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="n">
+        <v>158055.62</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n">
+        <v>153427.12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="n">
+        <v>156236.33</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="n">
+        <v>160520.78</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="n">
+        <v>159708.48</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n">
+        <v>161423.93</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n">
+        <v>163917.35</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n">
+        <v>163939.38</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" t="n">
+        <v>161032.07</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" t="n">
+        <v>163976.92</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>23</v>
+      </c>
+      <c r="B23" t="n">
+        <v>163963.69</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" t="n">
+        <v>163977.95</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26</v>
+      </c>
+      <c r="B26" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>27</v>
+      </c>
+      <c r="B27" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>29</v>
+      </c>
+      <c r="B29" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>30</v>
+      </c>
+      <c r="B30" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>31</v>
+      </c>
+      <c r="B31" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>32</v>
+      </c>
+      <c r="B32" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33</v>
+      </c>
+      <c r="B33" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34</v>
+      </c>
+      <c r="B34" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35</v>
+      </c>
+      <c r="B35" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36</v>
+      </c>
+      <c r="B36" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37</v>
+      </c>
+      <c r="B37" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38</v>
+      </c>
+      <c r="B38" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39</v>
+      </c>
+      <c r="B39" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>40</v>
+      </c>
+      <c r="B40" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>41</v>
+      </c>
+      <c r="B41" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>42</v>
+      </c>
+      <c r="B42" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>43</v>
+      </c>
+      <c r="B43" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>44</v>
+      </c>
+      <c r="B44" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>45</v>
+      </c>
+      <c r="B45" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>46</v>
+      </c>
+      <c r="B46" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>47</v>
+      </c>
+      <c r="B47" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>48</v>
+      </c>
+      <c r="B48" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>49</v>
+      </c>
+      <c r="B49" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>50</v>
+      </c>
+      <c r="B50" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>51</v>
+      </c>
+      <c r="B51" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>52</v>
+      </c>
+      <c r="B52" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>53</v>
+      </c>
+      <c r="B53" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>54</v>
+      </c>
+      <c r="B54" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>55</v>
+      </c>
+      <c r="B55" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>56</v>
+      </c>
+      <c r="B56" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>57</v>
+      </c>
+      <c r="B57" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58</v>
+      </c>
+      <c r="B58" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59</v>
+      </c>
+      <c r="B59" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>60</v>
+      </c>
+      <c r="B60" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>61</v>
+      </c>
+      <c r="B61" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>62</v>
+      </c>
+      <c r="B62" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63</v>
+      </c>
+      <c r="B63" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64</v>
+      </c>
+      <c r="B64" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>65</v>
+      </c>
+      <c r="B65" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>66</v>
+      </c>
+      <c r="B66" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>67</v>
+      </c>
+      <c r="B67" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>68</v>
+      </c>
+      <c r="B68" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>69</v>
+      </c>
+      <c r="B69" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>70</v>
+      </c>
+      <c r="B70" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>71</v>
+      </c>
+      <c r="B71" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>72</v>
+      </c>
+      <c r="B72" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>73</v>
+      </c>
+      <c r="B73" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>74</v>
+      </c>
+      <c r="B74" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>75</v>
+      </c>
+      <c r="B75" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>76</v>
+      </c>
+      <c r="B76" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>77</v>
+      </c>
+      <c r="B77" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>78</v>
+      </c>
+      <c r="B78" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>79</v>
+      </c>
+      <c r="B79" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>80</v>
+      </c>
+      <c r="B80" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>81</v>
+      </c>
+      <c r="B81" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>82</v>
+      </c>
+      <c r="B82" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>83</v>
+      </c>
+      <c r="B83" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>84</v>
+      </c>
+      <c r="B84" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>85</v>
+      </c>
+      <c r="B85" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>86</v>
+      </c>
+      <c r="B86" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>87</v>
+      </c>
+      <c r="B87" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>88</v>
+      </c>
+      <c r="B88" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>89</v>
+      </c>
+      <c r="B89" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>90</v>
+      </c>
+      <c r="B90" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>91</v>
+      </c>
+      <c r="B91" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>92</v>
+      </c>
+      <c r="B92" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>93</v>
+      </c>
+      <c r="B93" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>94</v>
+      </c>
+      <c r="B94" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>95</v>
+      </c>
+      <c r="B95" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>96</v>
+      </c>
+      <c r="B96" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>97</v>
+      </c>
+      <c r="B97" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>98</v>
+      </c>
+      <c r="B98" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>99</v>
+      </c>
+      <c r="B99" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>100</v>
+      </c>
+      <c r="B100" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>101</v>
+      </c>
+      <c r="B101" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>102</v>
+      </c>
+      <c r="B102" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>103</v>
+      </c>
+      <c r="B103" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>104</v>
+      </c>
+      <c r="B104" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>105</v>
+      </c>
+      <c r="B105" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>106</v>
+      </c>
+      <c r="B106" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>107</v>
+      </c>
+      <c r="B107" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>108</v>
+      </c>
+      <c r="B108" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>109</v>
+      </c>
+      <c r="B109" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>110</v>
+      </c>
+      <c r="B110" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>111</v>
+      </c>
+      <c r="B111" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>112</v>
+      </c>
+      <c r="B112" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>113</v>
+      </c>
+      <c r="B113" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>114</v>
+      </c>
+      <c r="B114" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>115</v>
+      </c>
+      <c r="B115" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>116</v>
+      </c>
+      <c r="B116" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>117</v>
+      </c>
+      <c r="B117" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>118</v>
+      </c>
+      <c r="B118" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>119</v>
+      </c>
+      <c r="B119" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>120</v>
+      </c>
+      <c r="B120" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>121</v>
+      </c>
+      <c r="B121" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>122</v>
+      </c>
+      <c r="B122" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>123</v>
+      </c>
+      <c r="B123" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>124</v>
+      </c>
+      <c r="B124" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>125</v>
+      </c>
+      <c r="B125" t="n">
+        <v>163998.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/TR/PYTHON/IA2.xlsx
+++ b/TR/PYTHON/IA2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TRABAJO DE RECERCA\Treball-de-Recerca-IA\TR\PYTHON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janfe\Documents\Flappy-bird\TR\PYTHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B67598-9D1E-4D7C-87DB-7F517E155050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F205D7A6-7445-4A0B-9413-5713E164EBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29940" yWindow="2745" windowWidth="20955" windowHeight="13665" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="ca-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -137,7 +137,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ca-ES"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1007,7 +1007,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ca-ES"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1045,7 +1045,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ca-ES"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1087398511"/>
@@ -1127,7 +1127,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ca-ES"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1159,7 +1159,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ca-ES"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1087396111"/>
@@ -1200,7 +1200,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ca-ES"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1211,7 +1211,1146 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ca-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>M_1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> P_5</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Inpus 0-1 Junts</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'P-5_I-0_M-0'!$B$1:$B$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="125"/>
+                <c:pt idx="0">
+                  <c:v>43302.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59748.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89834.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90267.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>103507.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>114882.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>116759.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134267.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131774.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150454.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>147359.42000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>156089.68</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>151979.41</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>159294.46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>158736.56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>156149.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>156623.89000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>158236.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>158464.16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>158687.32999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>163761.88</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>163741.32999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>163806.07999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A6B-4321-AF32-650501E2EAA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Inputs 0-1 Separats</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'P-5_I-0_M-0'!$C$1:$C$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="125"/>
+                <c:pt idx="0">
+                  <c:v>1516.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11075.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6591.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6512.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9535.1200000000008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23917.46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20825</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30542.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36682.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24046.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35182.33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44861.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36586.699999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39267.22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48113.06</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50157.38</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37437.730000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>55178.55</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39138.44</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52768.67</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60613.06</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>50764.39</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64295.91</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>74505.929999999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50912.19</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>68185.36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>62549.38</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>62060.98</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>76564.92</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>75782.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>61809.68</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>74940.789999999994</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>67635.67</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>70621.850000000006</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>109776.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>76878.929999999993</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>107659.62</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>81090.05</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>79311.539999999994</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>87670.06</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>93622.09</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>89029.96</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>82447.48</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>105352.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>116558.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>118908.39</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>97178.19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>95585.27</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>109091.13</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>94817.89</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>98186.93</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>88051.49</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>101450.54</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>95073.12</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>89928.39</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>108658.46</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>105533.06</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>94733.82</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>103076.56</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>91448.93</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>103979.92</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>105356.76</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>104692.36</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>101624.92</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>106352.78</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>98876.93</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>100195.76</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>109080.07</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>123464.39</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>110053.45</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>102556.2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>113149.65</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>99736.09</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>105294.79</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>103322.9</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>103580.11</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>108831.34</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>118427.6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>113324.39</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>108036.87</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>104566.32</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>104756.41</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>106965.39</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>116816.7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>106294.41</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>112382.94</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>102275.93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>108204.11</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>117107.86</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>108585.84</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>128893.36</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>116097.8</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>112722.8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>126615.71</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>122351.33</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>126091.92</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>127844.15</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>119835.35</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>129782.08</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>117177.02</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>115983.59</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>123266.12</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>115999.34</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>115164.25</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>124797.57</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>111209.09</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>122218.06</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>117835.81</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>124990.46</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>118227.25</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>116951.44</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>126269.41</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>116641.12</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>115277.11</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>120810.94</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>131506.95000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>113888.71</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>139100.54</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>137610.76999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>124016.34</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>130313.53</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>126806.64</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>132065.94</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>126809.33</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>134069.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0A6B-4321-AF32-650501E2EAA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="42785279"/>
+        <c:axId val="42790079"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="42785279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="42790079"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="42790079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="42785279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1767,20 +2906,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1800,6 +3455,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gràfic 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE68F0DB-0256-9D5D-38F7-2DCCD93BBFF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2075,7 +3766,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -3088,7 +4779,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -4101,7 +5792,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -5110,1012 +6801,1387 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B125"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1">
         <v>43302.59</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>1516.95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
         <v>59748.55</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>11075.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3">
         <v>89834.05</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>6591.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
         <v>90267.23</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>6512.89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5">
         <v>103507.96</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>9535.1200000000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6">
         <v>114882.37</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>23917.46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7">
         <v>116759.38</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>20825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8">
         <v>134267.24</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>30542.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9">
         <v>131774.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>36682.11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10">
         <v>150454.07</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>24046.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11">
         <v>147359.42000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>35182.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12">
         <v>156089.68</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>44861.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13">
         <v>151979.41</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>36586.699999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14">
         <v>159294.46</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>39267.22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15">
         <v>158736.56</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>48113.06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16">
         <v>156149.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>50157.38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17">
         <v>156623.89000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>37437.730000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
       <c r="B18">
         <v>158236.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>55178.55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
       <c r="B19">
         <v>158464.16</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>39138.44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
       <c r="B20">
         <v>158687.32999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>52768.67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
       <c r="B21">
         <v>163761.88</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>60613.06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
       <c r="B22">
         <v>163741.32999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>50764.39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
       <c r="B23">
         <v>163806.07999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>64295.91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
       <c r="B24">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>74505.929999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
       <c r="B25">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>50912.19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
       <c r="B26">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>68185.36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
       <c r="B27">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>62549.38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
       <c r="B28">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>62060.98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
       <c r="B29">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>76564.92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
       <c r="B30">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>75782.399999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
       <c r="B31">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>61809.68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
       <c r="B32">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>74940.789999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
       <c r="B33">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>67635.67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
       <c r="B34">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>70621.850000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
       <c r="B35">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>109776.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
       <c r="B36">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>76878.929999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
       <c r="B37">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>107659.62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
       <c r="B38">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>81090.05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
       </c>
       <c r="B39">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>79311.539999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
       <c r="B40">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>87670.06</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>41</v>
       </c>
       <c r="B41">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>93622.09</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
       <c r="B42">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>89029.96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
       <c r="B43">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>82447.48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
       <c r="B44">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>105352.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
       <c r="B45">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>116558.45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
       <c r="B46">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>118908.39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
       </c>
       <c r="B47">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>97178.19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>48</v>
       </c>
       <c r="B48">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>95585.27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
       <c r="B49">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>109091.13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50</v>
       </c>
       <c r="B50">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>94817.89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>51</v>
       </c>
       <c r="B51">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>98186.93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>52</v>
       </c>
       <c r="B52">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>88051.49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>53</v>
       </c>
       <c r="B53">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>101450.54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>54</v>
       </c>
       <c r="B54">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>95073.12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>55</v>
       </c>
       <c r="B55">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>89928.39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>56</v>
       </c>
       <c r="B56">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>108658.46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>57</v>
       </c>
       <c r="B57">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>105533.06</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>58</v>
       </c>
       <c r="B58">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>94733.82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>59</v>
       </c>
       <c r="B59">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>103076.56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>60</v>
       </c>
       <c r="B60">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>91448.93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>61</v>
       </c>
       <c r="B61">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>103979.92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>62</v>
       </c>
       <c r="B62">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>105356.76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>63</v>
       </c>
       <c r="B63">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>104692.36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>64</v>
       </c>
       <c r="B64">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>101624.92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>65</v>
       </c>
       <c r="B65">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>106352.78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>66</v>
       </c>
       <c r="B66">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>98876.93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>67</v>
       </c>
       <c r="B67">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>100195.76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>68</v>
       </c>
       <c r="B68">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>109080.07</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>69</v>
       </c>
       <c r="B69">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>123464.39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>70</v>
       </c>
       <c r="B70">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>110053.45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>71</v>
       </c>
       <c r="B71">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>102556.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>72</v>
       </c>
       <c r="B72">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>113149.65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>73</v>
       </c>
       <c r="B73">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>99736.09</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>74</v>
       </c>
       <c r="B74">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>105294.79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>75</v>
       </c>
       <c r="B75">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>103322.9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>76</v>
       </c>
       <c r="B76">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>103580.11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>77</v>
       </c>
       <c r="B77">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>108831.34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>78</v>
       </c>
       <c r="B78">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>118427.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>79</v>
       </c>
       <c r="B79">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>113324.39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
       <c r="B80">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>108036.87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>81</v>
       </c>
       <c r="B81">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>104566.32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>82</v>
       </c>
       <c r="B82">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>104756.41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>83</v>
       </c>
       <c r="B83">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>106965.39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>84</v>
       </c>
       <c r="B84">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>116816.7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>85</v>
       </c>
       <c r="B85">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>106294.41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>86</v>
       </c>
       <c r="B86">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>112382.94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>87</v>
       </c>
       <c r="B87">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>102275.93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>88</v>
       </c>
       <c r="B88">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>108204.11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>89</v>
       </c>
       <c r="B89">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>117107.86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>90</v>
       </c>
       <c r="B90">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>108585.84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>91</v>
       </c>
       <c r="B91">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>128893.36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>92</v>
       </c>
       <c r="B92">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>116097.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>93</v>
       </c>
       <c r="B93">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>112722.8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>94</v>
       </c>
       <c r="B94">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>126615.71</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>95</v>
       </c>
       <c r="B95">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>122351.33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>96</v>
       </c>
       <c r="B96">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>126091.92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>97</v>
       </c>
       <c r="B97">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>127844.15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>98</v>
       </c>
       <c r="B98">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>119835.35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>99</v>
       </c>
       <c r="B99">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>129782.08</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>100</v>
       </c>
       <c r="B100">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>117177.02</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>101</v>
       </c>
       <c r="B101">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>115983.59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>102</v>
       </c>
       <c r="B102">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>123266.12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>103</v>
       </c>
       <c r="B103">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>115999.34</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>104</v>
       </c>
       <c r="B104">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>115164.25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>105</v>
       </c>
       <c r="B105">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>124797.57</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>106</v>
       </c>
       <c r="B106">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>111209.09</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>107</v>
       </c>
       <c r="B107">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>122218.06</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>108</v>
       </c>
       <c r="B108">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>117835.81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>109</v>
       </c>
       <c r="B109">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>124990.46</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>110</v>
       </c>
       <c r="B110">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>118227.25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>111</v>
       </c>
       <c r="B111">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>116951.44</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>112</v>
       </c>
       <c r="B112">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>126269.41</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>113</v>
       </c>
       <c r="B113">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>116641.12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>114</v>
       </c>
       <c r="B114">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>115277.11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>115</v>
       </c>
       <c r="B115">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>120810.94</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>116</v>
       </c>
       <c r="B116">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>131506.95000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>117</v>
       </c>
       <c r="B117">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>113888.71</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>118</v>
       </c>
       <c r="B118">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>139100.54</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>119</v>
       </c>
       <c r="B119">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>137610.76999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>120</v>
       </c>
       <c r="B120">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>124016.34</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>121</v>
       </c>
       <c r="B121">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>130313.53</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>122</v>
       </c>
       <c r="B122">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>126806.64</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>123</v>
       </c>
       <c r="B123">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>132065.94</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>124</v>
       </c>
       <c r="B124">
         <v>163806.65</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>126809.33</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>125</v>
       </c>
       <c r="B125">
         <v>163806.65</v>
+      </c>
+      <c r="C125">
+        <v>134069.06</v>
       </c>
     </row>
   </sheetData>

--- a/TR/PYTHON/IA2.xlsx
+++ b/TR/PYTHON/IA2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janfe\Documents\Flappy-bird\TR\PYTHON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Documents\GitHub\Flappy-bird_TR\TR\PYTHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F205D7A6-7445-4A0B-9413-5713E164EBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE43A24-1C9E-42BD-B085-E933EAB4D68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29940" yWindow="2745" windowWidth="20955" windowHeight="13665" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="8760" yWindow="2100" windowWidth="38700" windowHeight="15885" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ca-ES"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1214,7 +1214,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ca-ES"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1246,13 +1246,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES"/>
-              <a:t>M_1</a:t>
+              <a:t>MUTACIÓ: MNE    POBLACIÓ: 5</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="es-ES" baseline="0"/>
-              <a:t> P_5</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1295,7 +1290,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Inpus 0-1 Junts</c:v>
+            <c:v>Input PYO/PYF (Junts)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1307,7 +1302,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -1704,7 +1711,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Inputs 0-1 Separats</c:v>
+            <c:v>Inputs PYO-PYF (Separats)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1716,7 +1723,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -2117,6 +2136,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="42785279"/>
         <c:axId val="42790079"/>
@@ -2128,6 +2148,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>GENERACIONS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2192,7 +2267,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>FITNESS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2310,6 +2440,1063 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'P-5_I-0_M-0'!$B$1:$B$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="125"/>
+                <c:pt idx="0">
+                  <c:v>43302.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59748.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89834.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90267.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>103507.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>114882.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>116759.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134267.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131774.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150454.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>147359.42000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>156089.68</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>151979.41</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>159294.46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>158736.56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>156149.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>156623.89000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>158236.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>158464.16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>158687.32999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>163761.88</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>163741.32999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>163806.07999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>163806.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-00E9-4DC8-8371-D8E1BC29F615}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'P-5_I-0_M-0'!$C$1:$C$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="125"/>
+                <c:pt idx="0">
+                  <c:v>1516.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11075.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6591.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6512.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9535.1200000000008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23917.46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20825</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30542.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36682.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24046.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35182.33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44861.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36586.699999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39267.22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48113.06</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50157.38</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37437.730000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>55178.55</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39138.44</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52768.67</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60613.06</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>50764.39</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64295.91</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>74505.929999999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50912.19</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>68185.36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>62549.38</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>62060.98</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>76564.92</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>75782.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>61809.68</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>74940.789999999994</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>67635.67</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>70621.850000000006</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>109776.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>76878.929999999993</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>107659.62</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>81090.05</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>79311.539999999994</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>87670.06</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>93622.09</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>89029.96</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>82447.48</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>105352.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>116558.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>118908.39</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>97178.19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>95585.27</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>109091.13</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>94817.89</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>98186.93</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>88051.49</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>101450.54</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>95073.12</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>89928.39</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>108658.46</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>105533.06</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>94733.82</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>103076.56</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>91448.93</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>103979.92</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>105356.76</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>104692.36</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>101624.92</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>106352.78</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>98876.93</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>100195.76</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>109080.07</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>123464.39</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>110053.45</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>102556.2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>113149.65</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>99736.09</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>105294.79</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>103322.9</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>103580.11</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>108831.34</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>118427.6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>113324.39</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>108036.87</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>104566.32</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>104756.41</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>106965.39</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>116816.7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>106294.41</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>112382.94</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>102275.93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>108204.11</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>117107.86</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>108585.84</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>128893.36</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>116097.8</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>112722.8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>126615.71</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>122351.33</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>126091.92</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>127844.15</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>119835.35</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>129782.08</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>117177.02</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>115983.59</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>123266.12</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>115999.34</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>115164.25</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>124797.57</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>111209.09</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>122218.06</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>117835.81</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>124990.46</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>118227.25</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>116951.44</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>126269.41</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>116641.12</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>115277.11</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>120810.94</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>131506.95000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>113888.71</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>139100.54</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>137610.76999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>124016.34</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>130313.53</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>126806.64</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>132065.94</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>126809.33</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>134069.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-00E9-4DC8-8371-D8E1BC29F615}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="928644112"/>
+        <c:axId val="928646032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="928644112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="928646032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="928646032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="928644112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2351,6 +3538,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2907,6 +4134,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3426,16 +5156,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3462,16 +5192,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>211874</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>44586</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3491,6 +5221,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B744E0BE-ED00-037A-3733-6282575777DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3766,7 +5532,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -4779,7 +6545,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -5792,7 +7558,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -6803,11 +8569,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">

--- a/TR/PYTHON/IA2.xlsx
+++ b/TR/PYTHON/IA2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Documents\GitHub\Flappy-bird_TR\TR\PYTHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE43A24-1C9E-42BD-B085-E933EAB4D68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924354A7-3761-4DE0-8C88-AEED149719A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="8760" yWindow="2100" windowWidth="38700" windowHeight="15885" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1935" yWindow="6390" windowWidth="27840" windowHeight="15885" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -1246,7 +1246,30 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES"/>
-              <a:t>MUTACIÓ: MNE    POBLACIÓ: 5</a:t>
+              <a:t>MUTACIÓ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> NO ESTRUCTURAL</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>    </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>    POBLACIÓ: 5</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1290,7 +1313,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Input PYO/PYF (Junts)</c:v>
+            <c:v>Inputs junts</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1711,7 +1734,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Inputs PYO-PYF (Separats)</c:v>
+            <c:v>Inputs separats</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2169,7 +2192,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>GENERACIONS</a:t>
+                  <a:t>GENERACIÓ</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5192,16 +5215,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>211874</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>44586</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6543,7 +6566,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -8569,8 +8594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C125"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
